--- a/数值表.xlsx
+++ b/数值表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="146">
   <si>
     <t>生命</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,11 +34,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>铁傀儡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦力怕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尸壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女巫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电苦力怕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复药水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量药水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复药水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾牌兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾牌兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪傀儡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>鞘翅者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>铁傀儡</t>
+    <t>力量药水</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -46,27 +146,343 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尸壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>骷髅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>苦力怕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尸壳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡类型</t>
+    <t>闪电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾碎了伤害溢出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留存时间s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三联发间隔2s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移速,攻速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害(地,空)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1A100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4A40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1, 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8, 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,  1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4D3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5A30, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺客(冲,普)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4, 1.2, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25, 17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动时不会被攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰到第一个敌人前移60格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7, 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 3A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路空同时攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免疫爆炸,近伤,只攻击建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.65, 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升伤害(攻移)速50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回1血间隔1s共5次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻住5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使得苦力怕变成闪电苦力怕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在我方士兵附近召唤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在敌方士兵处召唤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击退70格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减(攻移)速50%3s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔5s给80格内友军回1血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害减50%3s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击距离(地,空), 弹速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 4A40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40, 100 / 6, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140, 80 / 4, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120, 80 / 3, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">140, 2 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3A50 ,3A40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6A40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲刺时无法控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔炉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每2s加1钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞘翅者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔炉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪苦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空要不要考虑我方鞘翅太多但又没到出恶魂的时候</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦僵僵尸髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间长,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘苦尸髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交叉随机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦僵3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尸2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘僵僵髅4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蜘僵僵尸髅髅女</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -74,47 +490,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女巫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电苦力怕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶魂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘蛛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发射器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟熏炉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复药水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量药水</t>
+    <t>蜘苦尸髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>髅恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尸女3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦僵僵尸女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦僵尸女恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦尸</t>
+  </si>
+  <si>
+    <t>蜘苦尸髅恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蜘苦尸髅髅恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔闪电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时击杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2阶前移</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -122,323 +557,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>恢复药水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铲子兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盾牌兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盾牌兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刺客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪傀儡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鞘翅者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟熏炉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量药水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>僵尸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦力怕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>僵尸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦力怕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>僵尸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尸壳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骷髅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盾碎了伤害溢出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>留存时间s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三联发间隔2s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移速,攻速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害(地,空)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1A100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4A40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1, 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8, 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,  1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.7, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4D3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5A30, 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刺客(冲,普)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4, 1.2, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25, 17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动时不会被攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碰到第一个敌人前移60格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.7, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每2s加1钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>僵尸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.7, 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3, 3A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路空同时攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>免疫爆炸,近伤,只攻击建筑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.65, 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升伤害(攻移)速50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回1血间隔1s共5次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冻住5s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使得苦力怕变成闪电苦力怕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在我方士兵附近召唤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在敌方士兵处召唤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.5A30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击退70格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减(攻移)速50%3s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隔5s给80格内友军回1血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害减50%3s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.25A30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击距离(地,空), 弹速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, 4A40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40, 100 / 6, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140, 80 / 4, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120, 80 / 3, 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">140, 2 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120, 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3A50 ,3A40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6A60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6A40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲刺时无法控制</t>
+    <t>冰电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑要不要闪电随便电(苦和闪苦可以重复引雷)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦僵僵3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无闪电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦僵僵尸髅3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦僵僵尸髅髅恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘苦僵尸髅恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>髅女恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦尸髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘髅2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蜘僵僵尸髅髅女恶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +609,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,6 +619,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -482,9 +653,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -767,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -783,39 +958,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -832,22 +1007,22 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E3">
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -858,25 +1033,25 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -893,16 +1068,16 @@
         <v>0.25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -913,22 +1088,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -939,13 +1114,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -954,7 +1129,7 @@
         <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -965,13 +1140,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -982,30 +1157,30 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -1016,13 +1191,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -1033,33 +1208,33 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C13" s="1">
         <v>0.65</v>
@@ -1068,12 +1243,12 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>1.5</v>
@@ -1088,18 +1263,18 @@
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D15">
         <v>6</v>
@@ -1108,18 +1283,18 @@
         <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1132,7 +1307,7 @@
         <v>160</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H17">
         <v>4</v>
@@ -1146,14 +1321,14 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18">
         <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -1170,14 +1345,14 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1"/>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -1188,14 +1363,14 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C21" s="1"/>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -1206,31 +1381,31 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C22" s="1"/>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="G22" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F23" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G23" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1242,216 +1417,371 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" customWidth="1"/>
+    <col min="6" max="12" width="4.88671875" customWidth="1"/>
+    <col min="13" max="13" width="8.77734375" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" customWidth="1"/>
+    <col min="15" max="15" width="8.109375" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" customWidth="1"/>
+    <col min="17" max="17" width="7.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="O1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="M2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="N3" t="s">
+        <v>136</v>
+      </c>
+      <c r="O3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>43</v>
-      </c>
       <c r="I4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
+        <v>106</v>
+      </c>
+      <c r="N4" t="s">
+        <v>105</v>
+      </c>
+      <c r="O4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="G5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="N5" t="s">
+        <v>117</v>
+      </c>
+      <c r="O5" t="s">
+        <v>118</v>
+      </c>
+      <c r="P5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="N6" t="s">
+        <v>114</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="P6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" t="s">
-        <v>6</v>
-      </c>
       <c r="J7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="N7" t="s">
+        <v>124</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="P7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="N8" t="s">
+        <v>127</v>
+      </c>
+      <c r="O8" t="s">
+        <v>126</v>
+      </c>
+      <c r="P8" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" t="s">
+        <v>133</v>
+      </c>
+      <c r="N9" t="s">
+        <v>139</v>
+      </c>
+      <c r="O9" t="s">
+        <v>144</v>
+      </c>
+      <c r="P9" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" t="s">
+        <v>134</v>
+      </c>
+      <c r="N10" t="s">
+        <v>141</v>
+      </c>
+      <c r="O10" t="s">
+        <v>143</v>
+      </c>
+      <c r="P10" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:L1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/数值表.xlsx
+++ b/数值表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="153">
   <si>
     <t>生命</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,75 +162,323 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾碎了伤害溢出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留存时间s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三联发间隔2s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移速,攻速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害(地,空)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1A100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4A40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1, 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8, 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,  1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4D3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺客(冲,普)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动时不会被攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 3A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路空同时攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免疫爆炸,近伤,只攻击建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>闪电</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盾碎了伤害溢出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>留存时间s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三联发间隔2s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移速,攻速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害(地,空)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1A100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4A40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1, 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8, 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,  1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.7, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4D3</t>
+    <t>0.65, 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回1血间隔1s共5次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻住5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使得苦力怕变成闪电苦力怕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在我方士兵附近召唤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在敌方士兵处召唤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减(攻移)速50%3s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害减50%3s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击距离(地,空), 弹速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140, 80 / 4, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔炉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每2s加1钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞘翅者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔炉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪苦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空要不要考虑我方鞘翅太多但又没到出恶魂的时候</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尸2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔闪电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时击杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2阶前移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑要不要闪电随便电(苦和闪苦可以重复引雷)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无闪电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦僵僵尸髅3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘髅2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦僵58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦僵僵僵4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20, 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰36 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰到第一个敌人前移50格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2jie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100, 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -238,31 +486,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刺客(冲,普)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4, 1.2, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25, 17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动时不会被攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碰到第一个敌人前移60格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.7, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>僵尸</t>
+    <t>1.4 / 1.2, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100, 80 / 3, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5, 4A40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击退60格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3A50 ,3A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6, 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30, 120 / 6, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7 / 0.9, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12, 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升伤害(攻移)速50%5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7A40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -270,235 +542,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.8, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3, 3A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路空同时攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>免疫爆炸,近伤,只攻击建筑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.65, 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升伤害(攻移)速50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回1血间隔1s共5次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冻住5s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使得苦力怕变成闪电苦力怕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在我方士兵附近召唤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在敌方士兵处召唤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.5A30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击退70格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减(攻移)速50%3s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隔5s给80格内友军回1血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害减50%3s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.25A30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击距离(地,空), 弹速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, 4A40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40, 100 / 6, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140, 80 / 4, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120, 80 / 3, 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">140, 2 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120, 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3A50 ,3A40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6A60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6A40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲刺时无法控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熔炉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每2s加1钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鞘翅者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熔炉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪苦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空要不要考虑我方鞘翅太多但又没到出恶魂的时候</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦僵僵尸髅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>间长,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘苦尸髅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交叉随机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦僵3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尸2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘僵僵髅4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘蜘僵僵尸髅髅女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘苦尸髅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骷髅</t>
+    <t>0.75, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔4s给80格内友军回1血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦僵僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘苦僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘僵僵尸2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘僵尸髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蜘僵尸4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尸女2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蜘尸尸女髅髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘僵尸女恶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -506,7 +590,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>髅恶</t>
+    <t>蜘僵僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蜘苦尸髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蜘尸髅髅恶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -514,94 +614,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>尸女3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦僵僵尸女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦僵尸女恶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦尸</t>
-  </si>
-  <si>
-    <t>蜘苦尸髅恶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘蜘苦尸髅髅恶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>间隔闪电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>限时击杀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2阶前移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考虑要不要闪电随便电(苦和闪苦可以重复引雷)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦僵僵3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保护失效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无闪电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦僵僵尸髅3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦僵僵尸髅髅恶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘苦僵尸髅恶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>髅女恶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦尸髅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘髅2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘蜘僵僵尸髅髅女恶</t>
+    <t>蜘僵尸尸髅髅髅恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘僵尸女髅恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>髅女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘僵尸女髅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,10 +685,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -942,55 +969,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="7" width="25.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="4.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" customWidth="1"/>
+    <col min="7" max="7" width="23.77734375" customWidth="1"/>
+    <col min="8" max="8" width="4.88671875" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" customWidth="1"/>
     <col min="10" max="10" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
         <v>36</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -1013,16 +1044,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3">
-        <v>15</v>
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>126</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -1033,31 +1064,31 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1068,19 +1099,19 @@
         <v>0.25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>5</v>
@@ -1088,28 +1119,28 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1117,10 +1148,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1129,13 +1160,13 @@
         <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1146,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -1160,16 +1191,16 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1177,10 +1208,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -1194,16 +1225,16 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1211,22 +1242,22 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1234,16 +1265,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.65</v>
+        <v>120</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="D13">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1251,19 +1282,19 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>1.5</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1.3</v>
+        <v>1.25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1271,25 +1302,25 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D15">
         <v>6</v>
       </c>
       <c r="E15">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="J16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1307,7 +1338,7 @@
         <v>160</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H17">
         <v>4</v>
@@ -1321,14 +1352,14 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18">
         <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -1337,7 +1368,7 @@
         <v>10</v>
       </c>
       <c r="J18">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1348,17 +1379,17 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1"/>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1366,17 +1397,17 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C21" s="1"/>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="H21">
         <v>3</v>
       </c>
       <c r="I21">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1384,28 +1415,28 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1"/>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G22" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1417,24 +1448,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="5.44140625" customWidth="1"/>
-    <col min="6" max="12" width="4.88671875" customWidth="1"/>
-    <col min="13" max="13" width="8.77734375" customWidth="1"/>
-    <col min="14" max="14" width="14.21875" customWidth="1"/>
-    <col min="15" max="15" width="8.109375" customWidth="1"/>
-    <col min="16" max="16" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" customWidth="1"/>
+    <col min="6" max="11" width="4.88671875" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
+    <col min="15" max="15" width="6.77734375" customWidth="1"/>
+    <col min="16" max="16" width="18.5546875" customWidth="1"/>
     <col min="17" max="17" width="7.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -1445,23 +1477,23 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
       <c r="O1" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="Q1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1469,7 +1501,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -1478,16 +1510,13 @@
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="N2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1504,27 +1533,27 @@
         <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
       </c>
       <c r="N3" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="O3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1533,7 +1562,7 @@
         <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s">
         <v>33</v>
@@ -1541,34 +1570,28 @@
       <c r="I4" t="s">
         <v>34</v>
       </c>
-      <c r="M4" t="s">
-        <v>106</v>
-      </c>
       <c r="N4" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="O4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
       <c r="F5" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -1580,16 +1603,16 @@
         <v>18</v>
       </c>
       <c r="N5" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="O5" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="P5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1597,16 +1620,19 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
+      <c r="E6" t="s">
+        <v>110</v>
+      </c>
       <c r="F6" t="s">
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
         <v>18</v>
@@ -1617,17 +1643,23 @@
       <c r="J6" t="s">
         <v>34</v>
       </c>
+      <c r="L6" t="s">
+        <v>135</v>
+      </c>
+      <c r="M6" t="s">
+        <v>136</v>
+      </c>
       <c r="N6" t="s">
-        <v>114</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>123</v>
+        <v>137</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="P6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1635,13 +1667,13 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="F7" t="s">
         <v>32</v>
@@ -1650,7 +1682,7 @@
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
@@ -1659,19 +1691,19 @@
         <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>124</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>122</v>
+        <v>142</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="Q7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1679,7 +1711,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -1688,100 +1720,100 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="N8" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="O8" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="P8" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="Q8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="N9" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="P9" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="Q9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="N10" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="O10" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="P10" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="R10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F1:L1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/数值表.xlsx
+++ b/数值表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -494,10 +494,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.5, 4A40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>击退60格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -631,6 +627,10 @@
   </si>
   <si>
     <t>蜘僵尸女髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.25, 4A40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -969,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1044,13 +1044,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G3" t="s">
         <v>38</v>
@@ -1099,7 +1099,7 @@
         <v>0.25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1122,16 +1122,16 @@
         <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G6" t="s">
         <v>55</v>
@@ -1160,7 +1160,7 @@
         <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -1245,7 +1245,7 @@
         <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -1257,7 +1257,7 @@
         <v>68</v>
       </c>
       <c r="G12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1265,10 +1265,10 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -1285,7 +1285,7 @@
         <v>1.25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="C21" s="1"/>
       <c r="F21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -1430,7 +1430,7 @@
         <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F23" t="s">
         <v>61</v>
@@ -1450,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1571,7 +1571,7 @@
         <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O4" t="s">
         <v>86</v>
@@ -1603,13 +1603,13 @@
         <v>18</v>
       </c>
       <c r="N5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O5" t="s">
         <v>105</v>
       </c>
       <c r="P5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1644,19 +1644,19 @@
         <v>34</v>
       </c>
       <c r="L6" t="s">
+        <v>134</v>
+      </c>
+      <c r="M6" t="s">
         <v>135</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>136</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" t="s">
         <v>138</v>
-      </c>
-      <c r="P6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1691,16 +1691,16 @@
         <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>90</v>
       </c>
       <c r="P7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1729,16 +1729,16 @@
         <v>82</v>
       </c>
       <c r="N8" t="s">
+        <v>143</v>
+      </c>
+      <c r="O8" t="s">
         <v>144</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>145</v>
       </c>
-      <c r="P8" t="s">
-        <v>146</v>
-      </c>
       <c r="Q8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1761,10 +1761,10 @@
         <v>99</v>
       </c>
       <c r="P9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1778,16 +1778,16 @@
         <v>109</v>
       </c>
       <c r="N10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P10" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q10" t="s">
         <v>149</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>150</v>
       </c>
       <c r="R10" t="s">
         <v>112</v>

--- a/数值表.xlsx
+++ b/数值表.xlsx
@@ -970,7 +970,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H6" sqref="H6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/数值表.xlsx
+++ b/数值表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="154">
   <si>
     <t>生命</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,379 +258,383 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>冻住5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使得苦力怕变成闪电苦力怕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在我方士兵附近召唤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在敌方士兵处召唤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减(攻移)速50%3s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害减50%3s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击距离(地,空), 弹速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140, 80 / 4, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔炉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每2s加1钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞘翅者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔炉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪苦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空要不要考虑我方鞘翅太多但又没到出恶魂的时候</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尸2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔闪电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时击杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2阶前移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑要不要闪电随便电(苦和闪苦可以重复引雷)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无闪电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦僵僵尸髅3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘髅2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦僵58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦僵僵僵4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20, 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰36 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰到第一个敌人前移50格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2jie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5A30, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4 / 1.2, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100, 80 / 3, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击退60格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3A50 ,3A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6, 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30, 120 / 6, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7 / 0.9, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12, 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升伤害(攻移)速50%5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7A40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7, 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔4s给80格内友军回1血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦僵僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘苦僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘僵僵尸2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘僵尸髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蜘僵尸4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尸女2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蜘尸尸女髅髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘僵尸女恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘僵僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蜘苦尸髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蜘尸髅髅恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘僵尸尸髅髅髅恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘僵尸女髅恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>髅女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘僵尸女髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.25, 3A40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>回1血间隔1s共5次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冻住5s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使得苦力怕变成闪电苦力怕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在我方士兵附近召唤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在敌方士兵处召唤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.5A30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减(攻移)速50%3s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害减50%3s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.25A30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击距离(地,空), 弹速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140, 80 / 4, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熔炉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每2s加1钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鞘翅者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熔炉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪苦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空要不要考虑我方鞘翅太多但又没到出恶魂的时候</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尸2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骷髅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>间隔闪电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>限时击杀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2阶前移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考虑要不要闪电随便电(苦和闪苦可以重复引雷)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保护失效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无闪电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦僵僵尸髅3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘髅2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦僵58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6A60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦僵僵僵4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20, 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰36 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碰到第一个敌人前移50格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2jie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80, 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100, 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5A30, 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4 / 1.2, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100, 80 / 3, 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击退60格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3A50 ,3A50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6, 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30, 120 / 6, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.7 / 0.9, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12, 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升伤害(攻移)速50%5s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7A40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.7, 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.75, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隔4s给80格内友军回1血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦僵僵尸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦僵尸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘苦僵尸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘僵僵尸2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘僵尸髅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘蜘僵尸4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尸女2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘蜘尸尸女髅髅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘僵尸女恶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘僵僵尸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>髅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘蜘苦尸髅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦恶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘蜘尸髅髅恶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘僵尸尸髅髅髅恶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘僵尸女髅恶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>髅女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦恶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘僵尸女髅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.25, 4A40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -969,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:I6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -998,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -1015,7 +1019,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1044,13 +1048,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G3" t="s">
         <v>38</v>
@@ -1067,19 +1071,19 @@
         <v>51</v>
       </c>
       <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
@@ -1099,16 +1103,16 @@
         <v>0.25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -1119,19 +1123,19 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G6" t="s">
         <v>55</v>
@@ -1148,7 +1152,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>58</v>
@@ -1160,7 +1164,7 @@
         <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -1200,7 +1204,7 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1242,22 +1246,22 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1265,16 +1269,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="D13">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1285,7 +1289,7 @@
         <v>1.25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1294,7 +1298,7 @@
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1302,10 +1306,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15">
         <v>6</v>
@@ -1352,14 +1356,14 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18">
         <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -1383,13 +1387,13 @@
       </c>
       <c r="C20" s="1"/>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1397,11 +1401,11 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="1"/>
       <c r="F21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -1415,14 +1419,14 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="1"/>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1430,13 +1434,13 @@
         <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1451,7 +1455,7 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1477,7 +1481,7 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1487,10 +1491,10 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="O1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1501,7 +1505,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -1510,10 +1514,10 @@
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1533,16 +1537,16 @@
         <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
       </c>
       <c r="N3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1553,7 +1557,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1562,7 +1566,7 @@
         <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s">
         <v>33</v>
@@ -1571,10 +1575,10 @@
         <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1585,13 +1589,13 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -1603,13 +1607,13 @@
         <v>18</v>
       </c>
       <c r="N5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1620,13 +1624,13 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
         <v>33</v>
@@ -1644,19 +1648,19 @@
         <v>34</v>
       </c>
       <c r="L6" t="s">
+        <v>132</v>
+      </c>
+      <c r="M6" t="s">
+        <v>133</v>
+      </c>
+      <c r="N6" t="s">
         <v>134</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>136</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="P6" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1667,13 +1671,13 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F7" t="s">
         <v>32</v>
@@ -1691,16 +1695,16 @@
         <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1711,7 +1715,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -1720,25 +1724,25 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N8" t="s">
+        <v>141</v>
+      </c>
+      <c r="O8" t="s">
+        <v>142</v>
+      </c>
+      <c r="P8" t="s">
         <v>143</v>
       </c>
-      <c r="O8" t="s">
-        <v>144</v>
-      </c>
-      <c r="P8" t="s">
-        <v>145</v>
-      </c>
       <c r="Q8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1746,71 +1750,71 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
         <v>98</v>
       </c>
-      <c r="O9" t="s">
-        <v>99</v>
-      </c>
       <c r="P9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="R10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/数值表.xlsx
+++ b/数值表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="155">
   <si>
     <t>生命</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,367 +274,371 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>A100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减(攻移)速50%3s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害减50%3s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击距离(地,空), 弹速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140, 80 / 4, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔炉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每2s加1钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞘翅者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔炉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪苦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空要不要考虑我方鞘翅太多但又没到出恶魂的时候</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尸2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔闪电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时击杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2阶前移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑要不要闪电随便电(苦和闪苦可以重复引雷)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无闪电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦僵僵尸髅3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘髅2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦僵58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦僵僵僵4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20, 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰36 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰到第一个敌人前移50格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2jie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5A30, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4 / 1.2, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100, 80 / 3, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击退60格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3A50 ,3A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6, 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30, 120 / 6, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7 / 0.9, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12, 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升伤害(攻移)速50%5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7A40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7, 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦僵僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘苦僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘僵僵尸2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘僵尸髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蜘僵尸4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尸女2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蜘尸尸女髅髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘僵尸女恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘僵僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蜘苦尸髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蜘尸髅髅恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘僵尸尸髅髅髅恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘僵尸女髅恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>髅女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘僵尸女髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.25, 3A40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回1血间隔1s共5次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2.5A30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减(攻移)速50%3s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害减50%3s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.25A30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击距离(地,空), 弹速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140, 80 / 4, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熔炉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每2s加1钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鞘翅者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熔炉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪苦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空要不要考虑我方鞘翅太多但又没到出恶魂的时候</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尸2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骷髅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>间隔闪电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>限时击杀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2阶前移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考虑要不要闪电随便电(苦和闪苦可以重复引雷)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保护失效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无闪电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦僵僵尸髅3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘髅2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦僵58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6A60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦僵僵僵4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20, 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰36 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碰到第一个敌人前移50格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2jie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80, 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100, 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5A30, 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4 / 1.2, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100, 80 / 3, 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击退60格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3A50 ,3A50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6, 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30, 120 / 6, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.7 / 0.9, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12, 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升伤害(攻移)速50%5s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7A40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.7, 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.75, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隔4s给80格内友军回1血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦僵僵尸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦僵尸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘苦僵尸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘僵僵尸2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘僵尸髅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘蜘僵尸4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尸女2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘蜘尸尸女髅髅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘僵尸女恶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘僵僵尸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>髅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘蜘苦尸髅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦恶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘蜘尸髅髅恶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘僵尸尸髅髅髅恶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘僵尸女髅恶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>髅女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦恶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘僵尸女髅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.25, 3A40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.7, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回1血间隔1s共5次</t>
+    <t>隔3s给80格内友军回1血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟花</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -973,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1002,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -1019,7 +1023,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1048,13 +1052,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G3" t="s">
         <v>38</v>
@@ -1071,19 +1075,19 @@
         <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
@@ -1103,16 +1107,16 @@
         <v>0.25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -1123,19 +1127,19 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G6" t="s">
         <v>55</v>
@@ -1152,7 +1156,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>58</v>
@@ -1164,7 +1168,7 @@
         <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -1204,7 +1208,7 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1246,22 +1250,22 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1269,16 +1273,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D13">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1289,7 +1293,7 @@
         <v>1.25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1298,7 +1302,7 @@
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1306,10 +1310,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15">
         <v>6</v>
@@ -1356,14 +1360,14 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18">
         <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -1387,7 +1391,7 @@
       </c>
       <c r="C20" s="1"/>
       <c r="F20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -1401,11 +1405,11 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1"/>
       <c r="F21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -1419,7 +1423,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="1"/>
       <c r="F22" t="s">
@@ -1434,7 +1438,7 @@
         <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F23" t="s">
         <v>60</v>
@@ -1454,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1481,7 +1485,7 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1491,10 +1495,10 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="O1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1505,7 +1509,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -1514,10 +1518,10 @@
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1537,16 +1541,16 @@
         <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
       </c>
       <c r="N3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1557,7 +1561,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1566,7 +1570,7 @@
         <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
         <v>33</v>
@@ -1575,10 +1579,10 @@
         <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1589,13 +1593,13 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -1607,13 +1611,13 @@
         <v>18</v>
       </c>
       <c r="N5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1624,13 +1628,13 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F6" t="s">
         <v>33</v>
@@ -1648,19 +1652,19 @@
         <v>34</v>
       </c>
       <c r="L6" t="s">
+        <v>129</v>
+      </c>
+      <c r="M6" t="s">
+        <v>130</v>
+      </c>
+      <c r="N6" t="s">
+        <v>131</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="M6" t="s">
+      <c r="P6" t="s">
         <v>133</v>
-      </c>
-      <c r="N6" t="s">
-        <v>134</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="P6" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1671,13 +1675,13 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F7" t="s">
         <v>32</v>
@@ -1695,27 +1699,30 @@
         <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -1724,25 +1731,25 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Q8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1750,71 +1757,71 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" t="s">
+        <v>105</v>
+      </c>
+      <c r="N9" t="s">
         <v>95</v>
       </c>
-      <c r="E9" t="s">
-        <v>107</v>
-      </c>
-      <c r="N9" t="s">
-        <v>97</v>
-      </c>
       <c r="O9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Q10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/数值表.xlsx
+++ b/数值表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="156">
   <si>
     <t>生命</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -490,10 +490,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.6, 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.3, 4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -614,14 +610,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.25, 3A40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.7, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>回1血间隔1s共5次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -639,6 +627,22 @@
   </si>
   <si>
     <t>烟花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5, 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5, 3A40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8, 4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -975,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1052,13 +1056,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G3" t="s">
         <v>38</v>
@@ -1107,7 +1111,7 @@
         <v>0.25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1130,16 +1134,16 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G6" t="s">
         <v>55</v>
@@ -1156,7 +1160,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>58</v>
@@ -1253,7 +1257,7 @@
         <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -1265,7 +1269,7 @@
         <v>66</v>
       </c>
       <c r="G12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1276,7 +1280,7 @@
         <v>116</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -1293,7 +1297,7 @@
         <v>1.25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1364,7 +1368,7 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G18" t="s">
         <v>72</v>
@@ -1380,70 +1384,93 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
       <c r="C19" s="1"/>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>40</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="F20" t="s">
-        <v>150</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
       <c r="I20">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C21" s="1"/>
       <c r="F21" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" s="1"/>
       <c r="F22" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" t="s">
-        <v>61</v>
+        <v>121</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="F23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>57</v>
       </c>
-      <c r="B23" t="s">
-        <v>123</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="B24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" t="s">
         <v>60</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G24" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1459,7 +1486,7 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1561,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1579,7 +1606,7 @@
         <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O4" t="s">
         <v>83</v>
@@ -1593,7 +1620,7 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1611,13 +1638,13 @@
         <v>18</v>
       </c>
       <c r="N5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O5" t="s">
         <v>102</v>
       </c>
       <c r="P5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1625,10 +1652,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1652,19 +1679,19 @@
         <v>34</v>
       </c>
       <c r="L6" t="s">
+        <v>128</v>
+      </c>
+      <c r="M6" t="s">
         <v>129</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>130</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" t="s">
         <v>132</v>
-      </c>
-      <c r="P6" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1672,10 +1699,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1699,24 +1726,24 @@
         <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="P7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>76</v>
+      <c r="B8" t="s">
+        <v>3</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -1740,16 +1767,16 @@
         <v>79</v>
       </c>
       <c r="N8" t="s">
+        <v>137</v>
+      </c>
+      <c r="O8" t="s">
         <v>138</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>139</v>
       </c>
-      <c r="P8" t="s">
-        <v>140</v>
-      </c>
       <c r="Q8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1772,10 +1799,10 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1789,16 +1816,16 @@
         <v>106</v>
       </c>
       <c r="N10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P10" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q10" t="s">
         <v>143</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>144</v>
       </c>
       <c r="R10" t="s">
         <v>109</v>

--- a/数值表.xlsx
+++ b/数值表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="155">
   <si>
     <t>生命</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,10 +235,6 @@
   </si>
   <si>
     <t>僵尸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3, 3A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -981,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1010,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -1027,7 +1023,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1056,13 +1052,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G3" t="s">
         <v>38</v>
@@ -1079,19 +1075,19 @@
         <v>51</v>
       </c>
       <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
@@ -1111,16 +1107,16 @@
         <v>0.25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -1131,22 +1127,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -1160,19 +1156,19 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -1212,7 +1208,7 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1236,8 +1232,8 @@
       <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
-        <v>54</v>
+      <c r="B11">
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>48</v>
@@ -1254,22 +1250,22 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1277,16 +1273,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D13">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1297,7 +1293,7 @@
         <v>1.25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1306,7 +1302,7 @@
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1314,10 +1310,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15">
         <v>6</v>
@@ -1326,7 +1322,7 @@
         <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1364,14 +1360,14 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -1385,7 +1381,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -1421,7 +1417,7 @@
       </c>
       <c r="C21" s="1"/>
       <c r="F21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -1435,11 +1431,11 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="1"/>
       <c r="F22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -1450,28 +1446,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="1"/>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1485,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1512,7 +1508,7 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1522,10 +1518,10 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="O1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1536,7 +1532,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -1545,10 +1541,10 @@
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1568,16 +1564,16 @@
         <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
       </c>
       <c r="N3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1588,7 +1584,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1597,7 +1593,7 @@
         <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s">
         <v>33</v>
@@ -1606,10 +1602,10 @@
         <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1620,13 +1616,13 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -1638,13 +1634,13 @@
         <v>18</v>
       </c>
       <c r="N5" t="s">
+        <v>125</v>
+      </c>
+      <c r="O5" t="s">
+        <v>101</v>
+      </c>
+      <c r="P5" t="s">
         <v>126</v>
-      </c>
-      <c r="O5" t="s">
-        <v>102</v>
-      </c>
-      <c r="P5" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1652,16 +1648,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F6" t="s">
         <v>33</v>
@@ -1679,19 +1675,19 @@
         <v>34</v>
       </c>
       <c r="L6" t="s">
+        <v>127</v>
+      </c>
+      <c r="M6" t="s">
         <v>128</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>129</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" t="s">
         <v>131</v>
-      </c>
-      <c r="P6" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1702,13 +1698,13 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F7" t="s">
         <v>32</v>
@@ -1726,16 +1722,16 @@
         <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1749,7 +1745,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -1758,25 +1754,25 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N8" t="s">
+        <v>136</v>
+      </c>
+      <c r="O8" t="s">
         <v>137</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>138</v>
       </c>
-      <c r="P8" t="s">
-        <v>139</v>
-      </c>
       <c r="Q8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1784,71 +1780,71 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9" t="s">
         <v>95</v>
       </c>
-      <c r="O9" t="s">
-        <v>96</v>
-      </c>
       <c r="P9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P10" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q10" t="s">
         <v>142</v>
       </c>
-      <c r="Q10" t="s">
-        <v>143</v>
-      </c>
       <c r="R10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/数值表.xlsx
+++ b/数值表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -977,7 +977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1481,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/数值表.xlsx
+++ b/数值表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="154">
   <si>
     <t>生命</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,395 +250,391 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>冻住5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使得苦力怕变成闪电苦力怕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在我方士兵附近召唤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在敌方士兵处召唤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减(攻移)速50%3s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害减50%3s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击距离(地,空), 弹速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140, 80 / 4, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔炉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每2s加1钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞘翅者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪苦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空要不要考虑我方鞘翅太多但又没到出恶魂的时候</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尸2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔闪电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时击杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2阶前移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑要不要闪电随便电(苦和闪苦可以重复引雷)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无闪电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦僵僵尸髅3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘髅2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦僵58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦僵僵僵4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20, 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰36 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰到第一个敌人前移50格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2jie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5A30, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4 / 1.2, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100, 80 / 3, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击退60格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3A50 ,3A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30, 120 / 6, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7 / 0.9, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12, 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升伤害(攻移)速50%5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7A40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7, 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘僵僵尸2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘僵尸髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蜘僵尸4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尸女2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蜘尸尸女髅髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘僵尸女恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘僵僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蜘苦尸髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蜘尸髅髅恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘僵尸尸髅髅髅恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘僵尸女髅恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>髅女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘僵尸女髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回1血间隔1s共5次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔3s给80格内友军回1血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5, 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5, 3A40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6, 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0.65, 5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冻住5s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使得苦力怕变成闪电苦力怕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在我方士兵附近召唤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在敌方士兵处召唤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减(攻移)速50%3s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害减50%3s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.25A30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击距离(地,空), 弹速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140, 80 / 4, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熔炉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每2s加1钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鞘翅者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熔炉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪苦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空要不要考虑我方鞘翅太多但又没到出恶魂的时候</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尸2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骷髅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>间隔闪电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>限时击杀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2阶前移</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考虑要不要闪电随便电(苦和闪苦可以重复引雷)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保护失效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无闪电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦僵僵尸髅3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘髅2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦僵58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6A60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦僵僵僵4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20, 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰36 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碰到第一个敌人前移50格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2jie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80, 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100, 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5A30, 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4 / 1.2, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100, 80 / 3, 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击退60格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3A50 ,3A50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30, 120 / 6, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.7 / 0.9, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12, 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升伤害(攻移)速50%5s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7A40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.7, 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.75, 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦僵僵尸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦僵尸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘苦僵尸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘僵僵尸2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘僵尸髅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘蜘僵尸4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尸女2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘蜘尸尸女髅髅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘僵尸女恶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘僵僵尸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>髅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘蜘苦尸髅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦恶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘蜘尸髅髅恶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘僵尸尸髅髅髅恶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘僵尸女髅恶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>髅女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦恶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜘僵尸女髅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回1血间隔1s共5次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.5A30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隔3s给80格内友军回1血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5, 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5, 3A40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8, 4</t>
+    <t>苦僵僵僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蜘苦尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘苦尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小1/血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小2/熔炉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -978,7 +974,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1006,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -1023,7 +1019,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1052,13 +1048,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G3" t="s">
         <v>38</v>
@@ -1075,19 +1071,19 @@
         <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
@@ -1104,19 +1100,19 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -1127,19 +1123,19 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G6" t="s">
         <v>54</v>
@@ -1156,10 +1152,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1168,7 +1164,7 @@
         <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -1208,7 +1204,7 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1250,22 +1246,22 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1273,16 +1269,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D13">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1293,7 +1289,7 @@
         <v>1.25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1302,7 +1298,7 @@
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1310,10 +1306,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15">
         <v>6</v>
@@ -1360,14 +1356,14 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -1381,7 +1377,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -1417,7 +1413,7 @@
       </c>
       <c r="C21" s="1"/>
       <c r="F21" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -1431,11 +1427,11 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1"/>
       <c r="F22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -1446,14 +1442,14 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="1"/>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1461,13 +1457,13 @@
         <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1482,7 +1478,7 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1508,7 +1504,7 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1518,10 +1514,10 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="O1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1532,7 +1528,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -1541,10 +1537,10 @@
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1564,16 +1560,16 @@
         <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
       </c>
       <c r="N3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1584,7 +1580,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1593,7 +1589,7 @@
         <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s">
         <v>33</v>
@@ -1602,10 +1598,10 @@
         <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="O4" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1616,13 +1612,13 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -1634,13 +1630,13 @@
         <v>18</v>
       </c>
       <c r="N5" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="O5" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="P5" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1648,16 +1644,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F6" t="s">
         <v>33</v>
@@ -1675,19 +1671,19 @@
         <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M6" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="P6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1698,13 +1694,13 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
         <v>32</v>
@@ -1722,30 +1718,27 @@
         <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="Q7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -1754,25 +1747,25 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N8" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="O8" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="P8" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="Q8" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1780,71 +1773,71 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="Q9" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="N10" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="O10" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="P10" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="Q10" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="R10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/数值表.xlsx
+++ b/数值表.xlsx
@@ -974,7 +974,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1158,7 +1158,7 @@
         <v>146</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>25</v>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>160</v>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" t="s">
         <v>70</v>
